--- a/medicine/Mort/Les_Contes_de_la_crypte_(série_télévisée)/Les_Contes_de_la_crypte_(série_télévisée).xlsx
+++ b/medicine/Mort/Les_Contes_de_la_crypte_(série_télévisée)/Les_Contes_de_la_crypte_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Contes de la crypte (Tales from the Crypt) est une série télévisée américaine en 93 épisodes de 24 minutes, créée d'après Tales from the Crypt, The Haunt of Fear, The Vault of Horror et Shock SuspenStories publiées par EC Comics et William Gaines dans les années 1950. La série a été diffusée entre le 10 juin 1989 et le 19 juillet 1996 sur HBO.
-En France, les trois premiers épisodes ont été diffusés sous la forme d'un téléfilm pilote nommé Contes d'outre-tombe en 1991 sur Canal+ puis aussi sur La Cinq et sur TF1 en mai 1992. Rediffusion du pilote le 25 février 1993[1] sur M6 puis sur 13e Rue, RTL9 et Sci Fi. Rediffusion et épisodes inédits sous le titre Les Contes de la crypte de 1991 à 1992 sur La Cinq puis jusqu'en août 1992 sur TF1 aussi du 7 juillet 1994[2] au 30 octobre 1998[3] sur M6. Les épisodes 4 à 6 de la première saison et la deuxième saison ont été diffusés à partir du 23 février 1993 sur Jimmy puis rediffusés dès 1995 sur M6, Série Club, Cinéfaz, Ciné FX et Game One. Les troisième et quatrième saisons ont été diffusées à partir du 7 juillet 1994 sur M6 puis rediffusées sur Série Club. La cinquième saison a été diffusée à partir du 4 juillet 1996 sur M6. La sixième (à part les épisodes 1 et 14) et la septième saison sont quant à elles inédites en France sur Comédie ou encore TV Breizh. En Belgique la série a été diffusée à partir du 17 juillet 1993[4] sur Canal+ Belgique.
-Le 14 avril 2016, TNT annonce la commande d'une nouvelle saison de dix épisodes produite par M. Night Shyamalan. La diffusion était prévue pour 2017[5]. Mais à la suite de problèmes de droits le projet est en attente[6].
+En France, les trois premiers épisodes ont été diffusés sous la forme d'un téléfilm pilote nommé Contes d'outre-tombe en 1991 sur Canal+ puis aussi sur La Cinq et sur TF1 en mai 1992. Rediffusion du pilote le 25 février 1993 sur M6 puis sur 13e Rue, RTL9 et Sci Fi. Rediffusion et épisodes inédits sous le titre Les Contes de la crypte de 1991 à 1992 sur La Cinq puis jusqu'en août 1992 sur TF1 aussi du 7 juillet 1994 au 30 octobre 1998 sur M6. Les épisodes 4 à 6 de la première saison et la deuxième saison ont été diffusés à partir du 23 février 1993 sur Jimmy puis rediffusés dès 1995 sur M6, Série Club, Cinéfaz, Ciné FX et Game One. Les troisième et quatrième saisons ont été diffusées à partir du 7 juillet 1994 sur M6 puis rediffusées sur Série Club. La cinquième saison a été diffusée à partir du 4 juillet 1996 sur M6. La sixième (à part les épisodes 1 et 14) et la septième saison sont quant à elles inédites en France sur Comédie ou encore TV Breizh. En Belgique la série a été diffusée à partir du 17 juillet 1993 sur Canal+ Belgique.
+Le 14 avril 2016, TNT annonce la commande d'une nouvelle saison de dix épisodes produite par M. Night Shyamalan. La diffusion était prévue pour 2017. Mais à la suite de problèmes de droits le projet est en attente.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série est une anthologie d'« histoires horrifiques » présentées par le Gardien de la crypte, un personnage à l'apparence squelettique et desséchée, adepte de l'humour noir. Ses origines sont racontées dans l'épisode 14 de la Saison 2 : L’Enterrée vivante.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux acteurs sont venus se faire trancher la tête, enterrer vivant, arracher les yeux, couper une jambe au cours des sept saisons, parmi lesquels : Michael Ironside, Héctor Elizondo, Tim Curry, Malcolm McDowell, Tia Carrere, Margot Kidder, Joe Pesci, David Warner, Richard Jordan, Roger Daltrey, Dan Aykroyd, Patricia Arquette, Timothy Dalton, Kirk Douglas, Tim Roth, Whoopi Goldberg, Tom Hanks, Teri Hatcher, Demi Moore, Amanda Plummer, Brad Pitt, Christopher Reeve, Martin Sheen, Ernie Hudson, Bill Paxton, Brooke Shields, Slash, Zach Galligan, Sugar Ray Leonard, Lea Thompson ou encore Michael J. Fox et James Tolkan.
 D'autres acteurs ont réalisé certains épisodes : Michael J. Fox, Tom Hanks, Kyle MacLachlan, Arnold Schwarzenegger, sans oublier des cinéastes célèbres comme William Friedkin, Walter Hill, Tom Holland, Mary Lambert ou Robert Zemeckis.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,15 +596,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Première saison (1989)
-Le Bourreau en mal d’exécuter (The Man Who Was Death)
+          <t>Première saison (1989)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Bourreau en mal d’exécuter (The Man Who Was Death)
 Nuit de Noël pour femme adultère (And All Through the House)
 Ulric et les neuf vies du chat (Dig That Cat… He’s Real Gone)
 Beauté meurtrière (Only Sin Deep)
 L’Amour parfait (Lover Come Hack To Me)
-La Collection (Collection Completed)
-Deuxième saison (1990)
-La Prophétie (Dead Right)
+La Collection (Collection Completed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1990)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Prophétie (Dead Right)
 L’Échange (The Switch)
 Cartes à double tranchant (Cutting Cards)
 Jusqu’à ce que la mort… (’Til Death)
@@ -605,9 +660,43 @@
 Curiosité fatale (Mute Witness to Murder)
 Terreur en direct (Television Terror)
 Les Frères Siamois (My Brother’s Keeper)
-Le Secret (The Secret)
-Troisième saison (1991)
-L'épisode 14 est inédit en France mais il est disponible en VOSTFr sur les DVD zone 1 sous le titre Trouillard.
+Le Secret (The Secret)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troisième saison (1991)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'épisode 14 est inédit en France mais il est disponible en VOSTFr sur les DVD zone 1 sous le titre Trouillard.
 Le Piège (The Trap)
 Un amour éternel (Loved to Death)
 Le Canyon de la mort (Carrion Death)
@@ -621,9 +710,43 @@
 Le Sacre de la tronçonneuse (Split Second)
 Dernière Limite (Deadline)
 À en perdre la tête (Spoiled)
-Trouillard (Yellow)
-Quatrième saison (1992)
-Les épisodes 8 et 9 sont inédits en France mais ils sont disponibles en VOSTFr sur les DVD zone 1.
+Trouillard (Yellow)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quatrième saison (1992)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les épisodes 8 et 9 sont inédits en France mais ils sont disponibles en VOSTFr sur les DVD zone 1.
 Cœur saignant en papillote (None but the Lonely Heart)
 À mourir de rire (This’ll Kill Ya)
 Le Tatouage (On a Dead Man’s Chest)
@@ -637,9 +760,43 @@
 Dédoublement de personnalité (Split Personality)
 Allez vous faire pendre (Strung Along)
 Concerto pour un loup-garou (Werewolf Concerto)
-Curiosité châtiée (Curiosity Killed)
-Cinquième saison (1993)
-Mort d’un pigeon voyageur (Death of Some Salesmen)
+Curiosité châtiée (Curiosity Killed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinquième saison (1993)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mort d’un pigeon voyageur (Death of Some Salesmen)
 Qui sème le vent (As Ye Sow)
 Objectif meurtre (Forever Ambergris)
 Soif de pensées (Food for Thought)
@@ -651,9 +808,43 @@
 Quand vint l’aurore (Came the Dawn)
 Les Feux de l’enfer (Oil’s Well That Ends Well)
 L’Heure des comptes (Half-Way Horrible)
-Jusqu'à ce que la mort nous sépare (Till Death Do We Part)
-Sixième saison (1994-1995)
-La saison 6 est inédite et donc uniquement disponible en VO. Seuls les épisodes 1 et 14 ont été doublés et diffusés en France.
+Jusqu'à ce que la mort nous sépare (Till Death Do We Part)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sixième saison (1994-1995)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La saison 6 est inédite et donc uniquement disponible en VO. Seuls les épisodes 1 et 14 ont été doublés et diffusés en France.
 Une punition à la mesure du crime (Let the Punishment Fit the Crime)
 Beauté intérieure (Only Skin Deep)
 Tourbillon (Whirlpool)
@@ -668,9 +859,43 @@
 Le Docteur de l'horreur  (Doctor of Horror)
 Quand l'aube se lève (Came the Dawn). Ne pas confondre avec l'épisode 10 de la saison 5 qui a le même titre anglais.
 Chair peinture (99 &amp; 44/100 Pure Horror)
-Vous, le meurtrier (You, Murderer)
-Septième saison (1996)
-La saison 7 est inédite en France donc uniquement disponible en VO.
+Vous, le meurtrier (You, Murderer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septième saison (1996)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La saison 7 est inédite en France donc uniquement disponible en VO.
 Virée fatale (Fatal Caper)
 Dernier hommage (Last Respects)
 Un léger cas de meurtre (A Slight Case of Murder)
@@ -683,9 +908,43 @@
 Délit de faciès (About Face)
 Confession (Confession)
 Entendu aujourd'hui... oublié demain (Ear Today… Gone Tomorrow) - Jeu de mots homophonique entre  'hear' (entendre) et 'ear' (oreille). L'expression idiomatique peut se traduire en français par 'ça entre par une oreille et ça ressort par l'autre'.
-Le Troisième cochon (The Third Pig)
-Les trois films
-Les Contes de la crypte ont donné lieu à trois films :
+Le Troisième cochon (The Third Pig)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les trois films</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les Contes de la crypte ont donné lieu à trois films :
 Le Cavalier du Diable (Tales from the Crypt: Demon Knight) 1995 de Ernest Dickerson
 La Reine des vampires (Tales from the Crypt Presents: Bordello Of Blood) 1996 de Gilbert Adler
 Ritual 2002 de Avi Nesher
@@ -695,62 +954,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Spin-off</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1997 fut diffusé un spin-off des Contes de la Crypte, intitulé Expériences interdites (Perversions of science en VO), conçu par la même équipe. Cette série dérivée, toujours inspirée de récits publiés par EC Comics mais plus axée science-fiction, présentée cette fois par un robot, ne connut qu'une courte saison de 10 épisodes.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Prix de la Meilleure Réalisation exceptionnelles la série régulière lors des American Society of Cinematographers 1996 pour Rick Bota pour l'épisode You Murderer.
 Prix de la Meilleure série d'horreur lors des Saturn Award 1995
@@ -799,31 +1062,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>En 1947, William Maxwell Gaines, éditeur américain, reprend la maison d’édition de son père EC Comics. Il troque les histoires familiales et éducatives pour des œuvres plus adultes dans des genres divers (guerre, policier et horreur). Ce n'est que vingt ans plus tard qu'ils réapparaissent en Grande-Bretagne et cette fois sur grand écran pour deux films à sketches avec cinq histoires dans chacun : Histoires d'outre-tombe en 1972 et Le Caveau de la terreur en 1973.
 En 1989, Joel Silver s’associe avec la HBO, Robert Zemeckis, Richard Donner, David Giler et Walter Hill, pour faire une série de ces contes. La première saison compte six épisodes, la deuxième dix-huit.
@@ -843,35 +1108,72 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Un flipper des Contes de la Crypte est sorti et édité par Data East.
-Bandes dessinées
-Tales from the crypt : Volume 1, Plus morts que vivants ! / Jack Davis. Paris, Albin Michel, 8 avril 1999, 72 p.  (ISBN 2-226-10796-7)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tales from the crypt : Volume 1, Plus morts que vivants ! / Jack Davis. Paris, Albin Michel, 8 avril 1999, 72 p.  (ISBN 2-226-10796-7)
 Tales from the crypt : Volume 2, Qui a peur du grand méchant loup ? / Jack Davis. Paris, Albin Michel, 8 avril 1999, 72 p.  (ISBN 2-226-10797-5)
 Tales from the crypt : Volume 3, Adieu jolie maman !
 Tales from the crypt : Volume 4, Partir, c'est mourir un peu
@@ -879,18 +1181,93 @@
 Tales from the crypt : Volume 6, Au bout du rouleau
 Tales from the crypt : Volume 7, Chat y est-tu ?
 Tales from the Crypt : Volume 8, Sans les mains !
-Tales from the Crypt : Volume 9, Plus dure sera la chute
-Éditions en vidéos
-En VHS
-VHS Universal sortie en 1990
+Tales from the Crypt : Volume 9, Plus dure sera la chute</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Éditions en vidéos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>En VHS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>VHS Universal sortie en 1990
 Contes d'outre-tombe, épisodes : Le bourreau en mal d'exécution, Nuit de Noël pour femme adultère et Ulric et les neuf vies du chat
 Contes Épouvantables 1er volume, 3 épisodes
 Contes Épouvantables 2e volume, 3 épisodes
 VHS warner sortie en 1993
 Les Contes de la crypte 2e volume, épisodes : Beauté meurtrière, L'amour parfait et La collection
-Les Contes de la crypte 3e volume, épisodes : La prophétie, L'échange et Cartes à double tranchants
-En DVD
--  France :
+Les Contes de la crypte 3e volume, épisodes : La prophétie, L'échange et Cartes à double tranchants</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Les_Contes_de_la_crypte_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Contes_de_la_crypte_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Produits dérivés</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Éditions en vidéos</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>En DVD</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-  France :
 En France, la série a été partiellement éditée en 13 DVD, avec 3 épisodes par DVD, vendu séparément ou réuni dans un coffret.
 Note : sur la jaquette des DVD, certains titres d'épisodes diffèrent avec le vrai titre présent dans le générique d'ouverture.
 le 13 novembre 2003
